--- a/학습자료/단답형/객관식_국어_기출의지혜_속담.xlsx
+++ b/학습자료/단답형/객관식_국어_기출의지혜_속담.xlsx
@@ -449,9 +449,9 @@
       <c r="A2" t="inlineStr">
         <is>
           <t>금강산 그늘이 관동 팔십 리
-1. 매우 쉬운 일, 강자가 약자를 괴롭힘
+1. 가난해 세간이 없음, 거리낄 것이 없음
 2. 훌륭한 사람 밑에서 그 덕의 도움을 받음
-3. 가난해 세간이 없음, 거리낄 것이 없음</t>
+3. 일의 순서도 모르고 성급하게 덤빔</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -464,14 +464,14 @@
       <c r="A3" t="inlineStr">
         <is>
           <t>서 발 막대 거칠 것 없다
-1. 매우 쉬운 일, 강자가 약자를 괴롭힘
-2. 훌륭한 사람 밑에서 그 덕의 도움을 받음
-3. 가난해 세간이 없음, 거리낄 것이 없음</t>
+1. 가난해 세간이 없음, 거리낄 것이 없음
+2. 일의 순서도 모르고 성급하게 덤빔
+3. 훌륭한 사람 밑에서 그 덕의 도움을 받음</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>3, 가난해 세간이 없음, 거리낄 것이 없음</t>
+          <t>1, 가난해 세간이 없음, 거리낄 것이 없음</t>
         </is>
       </c>
     </row>
@@ -494,14 +494,14 @@
       <c r="A5" t="inlineStr">
         <is>
           <t>우물에 가 숭늉 찾는다
-1. 가난해 세간이 없음, 거리낄 것이 없음
-2. 일의 순서도 모르고 성급하게 덤빔
-3. 매우 쉬운 일, 강자가 약자를 괴롭힘</t>
+1. 매우 쉬운 일, 강자가 약자를 괴롭힘
+2. 훌륭한 사람 밑에서 그 덕의 도움을 받음
+3. 일의 순서도 모르고 성급하게 덤빔</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2, 일의 순서도 모르고 성급하게 덤빔</t>
+          <t>3, 일의 순서도 모르고 성급하게 덤빔</t>
         </is>
       </c>
     </row>

--- a/학습자료/단답형/객관식_국어_기출의지혜_속담.xlsx
+++ b/학습자료/단답형/객관식_국어_기출의지혜_속담.xlsx
@@ -450,13 +450,13 @@
         <is>
           <t>금강산 그늘이 관동 팔십 리
 1. 가난해 세간이 없음, 거리낄 것이 없음
-2. 훌륭한 사람 밑에서 그 덕의 도움을 받음
-3. 일의 순서도 모르고 성급하게 덤빔</t>
+2. 일의 순서도 모르고 성급하게 덤빔
+3. 훌륭한 사람 밑에서 그 덕의 도움을 받음</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2, 훌륭한 사람 밑에서 그 덕의 도움을 받음</t>
+          <t>3, 훌륭한 사람 밑에서 그 덕의 도움을 받음</t>
         </is>
       </c>
     </row>
@@ -465,8 +465,8 @@
         <is>
           <t>서 발 막대 거칠 것 없다
 1. 가난해 세간이 없음, 거리낄 것이 없음
-2. 일의 순서도 모르고 성급하게 덤빔
-3. 훌륭한 사람 밑에서 그 덕의 도움을 받음</t>
+2. 매우 쉬운 일, 강자가 약자를 괴롭힘
+3. 일의 순서도 모르고 성급하게 덤빔</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -479,14 +479,14 @@
       <c r="A4" t="inlineStr">
         <is>
           <t>무른 땅에 말뚝 박기
-1. 일의 순서도 모르고 성급하게 덤빔
-2. 훌륭한 사람 밑에서 그 덕의 도움을 받음
-3. 매우 쉬운 일, 강자가 약자를 괴롭힘</t>
+1. 가난해 세간이 없음, 거리낄 것이 없음
+2. 매우 쉬운 일, 강자가 약자를 괴롭힘
+3. 일의 순서도 모르고 성급하게 덤빔</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>3, 매우 쉬운 일, 강자가 약자를 괴롭힘</t>
+          <t>2, 매우 쉬운 일, 강자가 약자를 괴롭힘</t>
         </is>
       </c>
     </row>
@@ -494,14 +494,14 @@
       <c r="A5" t="inlineStr">
         <is>
           <t>우물에 가 숭늉 찾는다
-1. 매우 쉬운 일, 강자가 약자를 괴롭힘
+1. 일의 순서도 모르고 성급하게 덤빔
 2. 훌륭한 사람 밑에서 그 덕의 도움을 받음
-3. 일의 순서도 모르고 성급하게 덤빔</t>
+3. 가난해 세간이 없음, 거리낄 것이 없음</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>3, 일의 순서도 모르고 성급하게 덤빔</t>
+          <t>1, 일의 순서도 모르고 성급하게 덤빔</t>
         </is>
       </c>
     </row>

--- a/학습자료/단답형/객관식_국어_기출의지혜_속담.xlsx
+++ b/학습자료/단답형/객관식_국어_기출의지혜_속담.xlsx
@@ -449,14 +449,14 @@
       <c r="A2" t="inlineStr">
         <is>
           <t>금강산 그늘이 관동 팔십 리
-1. 가난해 세간이 없음, 거리낄 것이 없음
-2. 일의 순서도 모르고 성급하게 덤빔
-3. 훌륭한 사람 밑에서 그 덕의 도움을 받음</t>
+1. 훌륭한 사람 밑에서 그 덕의 도움을 받음
+2. 가난해 세간이 없음, 거리낄 것이 없음
+3. 매우 쉬운 일, 강자가 약자를 괴롭힘</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>3, 훌륭한 사람 밑에서 그 덕의 도움을 받음</t>
+          <t>1, 훌륭한 사람 밑에서 그 덕의 도움을 받음</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
         <is>
           <t>서 발 막대 거칠 것 없다
 1. 가난해 세간이 없음, 거리낄 것이 없음
-2. 매우 쉬운 일, 강자가 약자를 괴롭힘
+2. 훌륭한 사람 밑에서 그 덕의 도움을 받음
 3. 일의 순서도 모르고 성급하게 덤빔</t>
         </is>
       </c>
@@ -479,14 +479,14 @@
       <c r="A4" t="inlineStr">
         <is>
           <t>무른 땅에 말뚝 박기
-1. 가난해 세간이 없음, 거리낄 것이 없음
-2. 매우 쉬운 일, 강자가 약자를 괴롭힘
-3. 일의 순서도 모르고 성급하게 덤빔</t>
+1. 훌륭한 사람 밑에서 그 덕의 도움을 받음
+2. 가난해 세간이 없음, 거리낄 것이 없음
+3. 매우 쉬운 일, 강자가 약자를 괴롭힘</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2, 매우 쉬운 일, 강자가 약자를 괴롭힘</t>
+          <t>3, 매우 쉬운 일, 강자가 약자를 괴롭힘</t>
         </is>
       </c>
     </row>
@@ -494,14 +494,14 @@
       <c r="A5" t="inlineStr">
         <is>
           <t>우물에 가 숭늉 찾는다
-1. 일의 순서도 모르고 성급하게 덤빔
-2. 훌륭한 사람 밑에서 그 덕의 도움을 받음
-3. 가난해 세간이 없음, 거리낄 것이 없음</t>
+1. 훌륭한 사람 밑에서 그 덕의 도움을 받음
+2. 매우 쉬운 일, 강자가 약자를 괴롭힘
+3. 일의 순서도 모르고 성급하게 덤빔</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1, 일의 순서도 모르고 성급하게 덤빔</t>
+          <t>3, 일의 순서도 모르고 성급하게 덤빔</t>
         </is>
       </c>
     </row>
